--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E97B82A-E62E-4D94-9599-1167CB187F30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A42106-1806-47CA-840F-69A0E554EF60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Task/Management</t>
   </si>
@@ -43,91 +43,121 @@
     <t>1. Initiating</t>
   </si>
   <si>
-    <t>1.1 Media proposal</t>
-  </si>
-  <si>
     <t>2. Planning</t>
   </si>
   <si>
-    <t>2.1 Hire employees</t>
-  </si>
-  <si>
-    <t>2.4 Establishing internal communication</t>
-  </si>
-  <si>
-    <t>2.5 Prepare T&amp;C for sponsors/suppliers</t>
-  </si>
-  <si>
-    <t>2.6 Insurance acquirement</t>
-  </si>
-  <si>
     <t>3. Executing</t>
   </si>
   <si>
-    <t>1.2 Estimate cost/budget</t>
-  </si>
-  <si>
-    <t>1.3 Collect purchase requests</t>
-  </si>
-  <si>
-    <t>1.4 Sponsor/supplier search</t>
-  </si>
-  <si>
-    <t>1.5 Analyse potential risks</t>
-  </si>
-  <si>
-    <t>3.1 Organize employees</t>
-  </si>
-  <si>
-    <t>3.2 Compile Work Breakdown Structure</t>
-  </si>
-  <si>
-    <t>3.3 Negotiate with sponsors/suppliers</t>
-  </si>
-  <si>
-    <t>3.4 Create sponsors/ suppliers connections</t>
-  </si>
-  <si>
-    <t>3.5 Allocate insurance claims</t>
-  </si>
-  <si>
     <t>4. Monitoring &amp; Controlling</t>
   </si>
   <si>
     <t>4.1 Weekly updates on department progress</t>
   </si>
   <si>
-    <t>4.4 Monitor departments' progress</t>
-  </si>
-  <si>
-    <t>4.3 Inform supplies' progress</t>
-  </si>
-  <si>
     <t>4.2 Observe department managers and staffs</t>
   </si>
   <si>
     <t>5. Closing</t>
   </si>
   <si>
-    <t>5.2 Document report on obtained supplies/services</t>
-  </si>
-  <si>
-    <t>5.3 Document report on messeges/mails</t>
-  </si>
-  <si>
     <t>5.1 Document report on departments' progress</t>
   </si>
   <si>
-    <t>5.4 Document report on losses</t>
-  </si>
-  <si>
-    <t>2.2 Organize list of required assets</t>
-  </si>
-  <si>
-    <t>2.3 Contacting sponsors</t>
-  </si>
-  <si>
-    <t>4.5 Oversee risk containment's progress</t>
+    <t>1.1 Media Proposal</t>
+  </si>
+  <si>
+    <t>1.2 Estimate Cost/Budget</t>
+  </si>
+  <si>
+    <t>1.3 Collect Purchase Requests</t>
+  </si>
+  <si>
+    <t>2.2 Staff Employment</t>
+  </si>
+  <si>
+    <t>2.3 Organize List of Required Assets</t>
+  </si>
+  <si>
+    <t>1.4 Identify Stakeholders</t>
+  </si>
+  <si>
+    <t>1.5 Sponsor/Supplier Search</t>
+  </si>
+  <si>
+    <t>1.6 Analyse Potential Risks</t>
+  </si>
+  <si>
+    <t>2.1 Develop Human Resource Plan</t>
+  </si>
+  <si>
+    <t>2.4 Contacting Sponsors</t>
+  </si>
+  <si>
+    <t>2.5 Establishing Internal Communication</t>
+  </si>
+  <si>
+    <t>2.6 Prepare T&amp;C for sponsors/suppliers</t>
+  </si>
+  <si>
+    <t>2.7 Plan Risk Management</t>
+  </si>
+  <si>
+    <t>2.8 Identify Risks</t>
+  </si>
+  <si>
+    <t>2.9 Perform Risk Analysis</t>
+  </si>
+  <si>
+    <t>2.10 Plan Risk Responses</t>
+  </si>
+  <si>
+    <t>3.1 Develop Project Team</t>
+  </si>
+  <si>
+    <t>3.2 Organize Employees</t>
+  </si>
+  <si>
+    <t>3.3 Compile Work Breakdown Structure</t>
+  </si>
+  <si>
+    <t>3.4 Negotiate with Sponsors/Suppliers</t>
+  </si>
+  <si>
+    <t>3.5 Distribute Information</t>
+  </si>
+  <si>
+    <t>3.6 Create Sponsors/ Suppliers Connections</t>
+  </si>
+  <si>
+    <t>3.7 Manage Stakeholder Expectations</t>
+  </si>
+  <si>
+    <t>3.8 Execute Risk Responses</t>
+  </si>
+  <si>
+    <t>4.3 Administer procurement</t>
+  </si>
+  <si>
+    <t>4.4 Inform supplies' progress</t>
+  </si>
+  <si>
+    <t>4.5 Monitor and Report Performance</t>
+  </si>
+  <si>
+    <t>4.6 Monitor and Control Risks</t>
+  </si>
+  <si>
+    <t>5.2 Close Procurements</t>
+  </si>
+  <si>
+    <t>5.3 Document report on obtained supplies/services</t>
+  </si>
+  <si>
+    <t>5.4 Document report on messeges/mails</t>
+  </si>
+  <si>
+    <t>5.5 Document report on losses</t>
   </si>
 </sst>
 </file>
@@ -459,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +528,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -506,7 +536,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -514,13 +544,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -528,55 +558,52 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+      <c r="A10" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -584,65 +611,79 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -650,23 +691,24 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -674,46 +716,117 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
+      <c r="A32" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A42106-1806-47CA-840F-69A0E554EF60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C86B7-BBB7-47A2-8E3D-04C4D24C520A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Task/Management</t>
   </si>
@@ -52,112 +52,100 @@
     <t>4. Monitoring &amp; Controlling</t>
   </si>
   <si>
-    <t>4.1 Weekly updates on department progress</t>
-  </si>
-  <si>
-    <t>4.2 Observe department managers and staffs</t>
-  </si>
-  <si>
     <t>5. Closing</t>
   </si>
   <si>
-    <t>5.1 Document report on departments' progress</t>
-  </si>
-  <si>
-    <t>1.1 Media Proposal</t>
-  </si>
-  <si>
-    <t>1.2 Estimate Cost/Budget</t>
-  </si>
-  <si>
-    <t>1.3 Collect Purchase Requests</t>
-  </si>
-  <si>
-    <t>2.2 Staff Employment</t>
-  </si>
-  <si>
-    <t>2.3 Organize List of Required Assets</t>
-  </si>
-  <si>
-    <t>1.4 Identify Stakeholders</t>
-  </si>
-  <si>
-    <t>1.5 Sponsor/Supplier Search</t>
-  </si>
-  <si>
-    <t>1.6 Analyse Potential Risks</t>
-  </si>
-  <si>
-    <t>2.1 Develop Human Resource Plan</t>
-  </si>
-  <si>
     <t>2.4 Contacting Sponsors</t>
   </si>
   <si>
-    <t>2.5 Establishing Internal Communication</t>
-  </si>
-  <si>
-    <t>2.6 Prepare T&amp;C for sponsors/suppliers</t>
-  </si>
-  <si>
-    <t>2.7 Plan Risk Management</t>
-  </si>
-  <si>
-    <t>2.8 Identify Risks</t>
-  </si>
-  <si>
-    <t>2.9 Perform Risk Analysis</t>
-  </si>
-  <si>
-    <t>2.10 Plan Risk Responses</t>
-  </si>
-  <si>
-    <t>3.1 Develop Project Team</t>
-  </si>
-  <si>
-    <t>3.2 Organize Employees</t>
-  </si>
-  <si>
-    <t>3.3 Compile Work Breakdown Structure</t>
-  </si>
-  <si>
-    <t>3.4 Negotiate with Sponsors/Suppliers</t>
-  </si>
-  <si>
-    <t>3.5 Distribute Information</t>
-  </si>
-  <si>
-    <t>3.6 Create Sponsors/ Suppliers Connections</t>
-  </si>
-  <si>
     <t>3.7 Manage Stakeholder Expectations</t>
   </si>
   <si>
     <t>3.8 Execute Risk Responses</t>
   </si>
   <si>
-    <t>4.3 Administer procurement</t>
-  </si>
-  <si>
-    <t>4.4 Inform supplies' progress</t>
-  </si>
-  <si>
-    <t>4.5 Monitor and Report Performance</t>
-  </si>
-  <si>
-    <t>4.6 Monitor and Control Risks</t>
-  </si>
-  <si>
     <t>5.2 Close Procurements</t>
   </si>
   <si>
-    <t>5.3 Document report on obtained supplies/services</t>
-  </si>
-  <si>
-    <t>5.4 Document report on messeges/mails</t>
-  </si>
-  <si>
-    <t>5.5 Document report on losses</t>
+    <t>1.1 Develop Project Charter</t>
+  </si>
+  <si>
+    <t>2.1 Plan Human Resource Management</t>
+  </si>
+  <si>
+    <t>3.2 Develop Project Team</t>
+  </si>
+  <si>
+    <t>3.1 Acquire Project Team</t>
+  </si>
+  <si>
+    <t>3.3 Manage Project Team</t>
+  </si>
+  <si>
+    <t>3.5 Conduct Procurement</t>
+  </si>
+  <si>
+    <t>3.6 Manage Communications</t>
+  </si>
+  <si>
+    <t>4.1 Monitor Project Team Progress</t>
+  </si>
+  <si>
+    <t>5.1 Close Project</t>
+  </si>
+  <si>
+    <t>5.3 Document report on departments' progress</t>
+  </si>
+  <si>
+    <t>5.4 Document report on obtained supplies/services</t>
+  </si>
+  <si>
+    <t>5.5 Document report on messeges/mails</t>
+  </si>
+  <si>
+    <t>5.6 Document report on losses</t>
+  </si>
+  <si>
+    <t>2.3 Plan Communications Management</t>
+  </si>
+  <si>
+    <t>3.4 Contacting &amp; Negotiate with Sponsors/Suppliers</t>
+  </si>
+  <si>
+    <t>2.5 Plan Risk Management</t>
+  </si>
+  <si>
+    <t>2.6 Identify Risks</t>
+  </si>
+  <si>
+    <t>2.7 Perform Risk Analysis</t>
+  </si>
+  <si>
+    <t>2.8 Plan Risk Responses</t>
+  </si>
+  <si>
+    <t>2.2 Organize List of Required Assets</t>
+  </si>
+  <si>
+    <t>1.2 Collect Purchase Requests</t>
+  </si>
+  <si>
+    <t>1.3 Identify Stakeholders</t>
+  </si>
+  <si>
+    <t>1.4 Sponsor/Supplier Search</t>
+  </si>
+  <si>
+    <t>1.5 Analyse Potential Risks</t>
+  </si>
+  <si>
+    <t>4.2 Control Procurement</t>
+  </si>
+  <si>
+    <t>4.3 Control Communications</t>
+  </si>
+  <si>
+    <t>4.4 Monitor and Control Risks</t>
   </si>
 </sst>
 </file>
@@ -489,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +516,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -536,7 +524,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -544,13 +532,15 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -558,275 +548,240 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
+      <c r="A19" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
+      <c r="A29" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C86B7-BBB7-47A2-8E3D-04C4D24C520A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9630617-0B21-4B09-AF78-CE2F3F1B57B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Task/Management</t>
   </si>
@@ -94,18 +94,6 @@
     <t>5.1 Close Project</t>
   </si>
   <si>
-    <t>5.3 Document report on departments' progress</t>
-  </si>
-  <si>
-    <t>5.4 Document report on obtained supplies/services</t>
-  </si>
-  <si>
-    <t>5.5 Document report on messeges/mails</t>
-  </si>
-  <si>
-    <t>5.6 Document report on losses</t>
-  </si>
-  <si>
     <t>2.3 Plan Communications Management</t>
   </si>
   <si>
@@ -146,6 +134,12 @@
   </si>
   <si>
     <t>4.4 Monitor and Control Risks</t>
+  </si>
+  <si>
+    <t>5.4 Document Procurement Report</t>
+  </si>
+  <si>
+    <t>5.6 Document Report on Losses</t>
   </si>
 </sst>
 </file>
@@ -477,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +518,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -532,7 +526,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -540,7 +534,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -548,7 +542,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
@@ -569,7 +563,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -577,7 +571,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -591,7 +585,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -599,7 +593,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
@@ -607,7 +601,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
@@ -615,7 +609,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
@@ -655,7 +649,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -709,7 +703,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -718,7 +712,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -726,7 +720,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
@@ -755,33 +749,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9630617-0B21-4B09-AF78-CE2F3F1B57B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563669C-293E-465D-8BB7-CAA5B8E2954A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>Task/Management</t>
   </si>
@@ -140,13 +142,115 @@
   </si>
   <si>
     <t>5.6 Document Report on Losses</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>4.5 Monitor and Control Risks</t>
+  </si>
+  <si>
+    <t>5.3 Document report on departments' progress</t>
+  </si>
+  <si>
+    <t>5.4 Document report on obtained supplies/services</t>
+  </si>
+  <si>
+    <t>5.5 Document report on messeges/mails</t>
+  </si>
+  <si>
+    <t>5.6 Document report on losses</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>ResourceName</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Std. Rate</t>
+  </si>
+  <si>
+    <t>Working Month/Week/Day/Hour</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>$4000/mon</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t>$4000 x 6</t>
+  </si>
+  <si>
+    <t>Project Manager Advisor</t>
+  </si>
+  <si>
+    <t>$2000/mon</t>
+  </si>
+  <si>
+    <t>$2000 x 6</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>$3000/mon</t>
+  </si>
+  <si>
+    <t>$3000 x 6</t>
+  </si>
+  <si>
+    <t>UI Designer</t>
+  </si>
+  <si>
+    <t>$2500/mon</t>
+  </si>
+  <si>
+    <t>$2500 x 6</t>
+  </si>
+  <si>
+    <t>Software Tester</t>
+  </si>
+  <si>
+    <t>$500/day</t>
+  </si>
+  <si>
+    <t>24 Days</t>
+  </si>
+  <si>
+    <t>$500 x 24</t>
+  </si>
+  <si>
+    <t>Quality Control Manager</t>
+  </si>
+  <si>
+    <t>Technical Assistant</t>
+  </si>
+  <si>
+    <t>Negotiator</t>
+  </si>
+  <si>
+    <t>Procurement Officer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +265,12 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,10 +280,39 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -182,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -191,11 +330,282 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,6 +616,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9AE64F-CFAC-482B-867A-05AF523A16AE}" name="Table1" displayName="Table1" ref="A1:B42" totalsRowShown="0">
+  <autoFilter ref="A1:B42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EF36005D-D971-4057-934C-D5D6E187B92F}" name="Task/Management" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6FF2FF62-C8EA-4ED4-880F-6E4837E223BD}" name="Cost" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18CC0279-E32C-42E1-A414-053103AABEE5}" name="Table5" displayName="Table5" ref="A1:F11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9C545817-AFB8-4333-B902-0480DADA1310}" name="ResourceName" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{947A9DA2-0B49-48A1-ACDD-3BC110579F9B}" name="Amount" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D53AB385-4671-454E-9D1D-47C31CE08353}" name="Std. Rate" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F54AC7B3-67EA-462D-ABF3-3FAC9769CE9A}" name="Working Month/Week/Day/Hour" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{25D70697-0488-4023-9497-B83F476743CF}" name="Calculation" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0FF8F86D-DC01-4309-998D-DE2F18D8D423}" name="Cost" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,20 +909,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,12 +938,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -516,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -524,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -532,7 +967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -540,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -548,12 +983,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -561,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -569,13 +1004,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -583,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -591,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -599,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -607,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -615,15 +1050,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -631,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -639,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -647,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -655,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -663,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -672,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -680,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -688,12 +1123,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -701,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -710,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -718,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -726,12 +1161,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -739,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -747,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -755,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -767,4 +1202,569 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09B52A-B3AA-4E92-AE64-DD38792712D2}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD35DC32-3878-4E50-A3FE-1B6B0D4CC8BB}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="7">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="9">
+        <v>13500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563669C-293E-465D-8BB7-CAA5B8E2954A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>Task/Management</t>
   </si>
@@ -144,113 +143,95 @@
     <t>5.6 Document Report on Losses</t>
   </si>
   <si>
+    <t>Resource Name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Std. Rate</t>
+  </si>
+  <si>
+    <t>Working Month/Week/Day/Hour</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>4.5 Monitor and Control Risks</t>
-  </si>
-  <si>
-    <t>5.3 Document report on departments' progress</t>
-  </si>
-  <si>
-    <t>5.4 Document report on obtained supplies/services</t>
-  </si>
-  <si>
-    <t>5.5 Document report on messeges/mails</t>
-  </si>
-  <si>
-    <t>5.6 Document report on losses</t>
-  </si>
-  <si>
-    <t>TOTAL:</t>
-  </si>
-  <si>
-    <t>ResourceName</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Std. Rate</t>
-  </si>
-  <si>
-    <t>Working Month/Week/Day/Hour</t>
-  </si>
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
-    <t>$4000/mon</t>
-  </si>
-  <si>
-    <t>6 Months</t>
-  </si>
-  <si>
-    <t>$4000 x 6</t>
-  </si>
-  <si>
-    <t>Project Manager Advisor</t>
-  </si>
-  <si>
-    <t>$2000/mon</t>
-  </si>
-  <si>
-    <t>$2000 x 6</t>
+    <t>$3000/mon</t>
+  </si>
+  <si>
+    <t>4 Months</t>
+  </si>
+  <si>
+    <t>7000 x 4</t>
   </si>
   <si>
     <t>Software Engineer</t>
   </si>
   <si>
-    <t>$3000/mon</t>
-  </si>
-  <si>
-    <t>$3000 x 6</t>
+    <t>$2200/mon</t>
+  </si>
+  <si>
+    <t>2200 x 4 x 3</t>
   </si>
   <si>
     <t>UI Designer</t>
   </si>
   <si>
-    <t>$2500/mon</t>
-  </si>
-  <si>
-    <t>$2500 x 6</t>
+    <t>$1800/mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800 x 4 </t>
   </si>
   <si>
     <t>Software Tester</t>
   </si>
   <si>
-    <t>$500/day</t>
-  </si>
-  <si>
-    <t>24 Days</t>
-  </si>
-  <si>
-    <t>$500 x 24</t>
-  </si>
-  <si>
-    <t>Quality Control Manager</t>
+    <t>$1000/mon</t>
+  </si>
+  <si>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
+    <t>$1700/day</t>
+  </si>
+  <si>
+    <t>1700 x 4</t>
+  </si>
+  <si>
+    <t>IT Security</t>
   </si>
   <si>
     <t>Technical Assistant</t>
   </si>
   <si>
-    <t>Negotiator</t>
-  </si>
-  <si>
-    <t>Procurement Officer</t>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Budget Cost</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,18 +247,58 @@
       <charset val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -309,19 +330,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -330,27 +355,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -367,17 +430,34 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -396,18 +476,15 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -426,8 +503,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -436,8 +513,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -456,8 +531,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -466,8 +541,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -486,8 +559,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -496,8 +569,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -516,8 +587,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -526,8 +597,34 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -553,58 +650,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -619,26 +664,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C9AE64F-CFAC-482B-867A-05AF523A16AE}" name="Table1" displayName="Table1" ref="A1:B42" totalsRowShown="0">
-  <autoFilter ref="A1:B42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EF36005D-D971-4057-934C-D5D6E187B92F}" name="Task/Management" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6FF2FF62-C8EA-4ED4-880F-6E4837E223BD}" name="Cost" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E39" totalsRowShown="0">
+  <autoFilter ref="A1:E39"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Task/Management" dataDxfId="3"/>
+    <tableColumn id="2" name="Human Resources"/>
+    <tableColumn id="3" name="Procurement"/>
+    <tableColumn id="4" name="Communication"/>
+    <tableColumn id="5" name="Risk"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18CC0279-E32C-42E1-A414-053103AABEE5}" name="Table5" displayName="Table5" ref="A1:F11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table53" displayName="Table53" ref="A1:F9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="A1:F9"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9C545817-AFB8-4333-B902-0480DADA1310}" name="ResourceName" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{947A9DA2-0B49-48A1-ACDD-3BC110579F9B}" name="Amount" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D53AB385-4671-454E-9D1D-47C31CE08353}" name="Std. Rate" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F54AC7B3-67EA-462D-ABF3-3FAC9769CE9A}" name="Working Month/Week/Day/Hour" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{25D70697-0488-4023-9497-B83F476743CF}" name="Calculation" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0FF8F86D-DC01-4309-998D-DE2F18D8D423}" name="Cost" dataDxfId="0"/>
+    <tableColumn id="1" name="Resource Name" dataDxfId="11"/>
+    <tableColumn id="2" name="Amount" dataDxfId="10"/>
+    <tableColumn id="3" name="Std. Rate" dataDxfId="9"/>
+    <tableColumn id="4" name="Working Month/Week/Day/Hour" dataDxfId="8"/>
+    <tableColumn id="5" name="Calculation" dataDxfId="7"/>
+    <tableColumn id="6" name="Cost" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B1:B40" totalsRowShown="0" headerRowDxfId="2" dataDxfId="0">
+  <autoFilter ref="B1:B40"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Budget Cost" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,327 +1259,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09B52A-B3AA-4E92-AE64-DD38792712D2}">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="7">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
+      <c r="F5" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="4">
-        <v>6200</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8">
+        <v>83800</v>
       </c>
     </row>
   </sheetData>
@@ -1533,238 +1464,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD35DC32-3878-4E50-A3FE-1B6B0D4CC8BB}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="7">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="7">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="B2" s="16">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="16">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="16">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="16">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="9">
-        <v>13500</v>
+      <c r="B40" s="16">
+        <v>109500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="156">
   <si>
     <t>Task/Management</t>
   </si>
@@ -218,10 +218,277 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Budget Cost</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t xml:space="preserve">   1 Initiating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.1 Identify Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.2 System Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.3 Feasibility Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.1 Technical Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.2 Schedule Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.3 Financial Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.4 Resource Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.4 Develop Project Charter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.1 Determine Project Aim &amp; Objectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.2 Determine Project Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.3 Determine Project Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.4 Determine Project Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.5 Determine Project Risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.6 Determine Project Milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2 Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.1 Develop Project Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.1.1 Identify Phases &amp; Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.1.2 Create Project Planning Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.2 Develop Resource Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.1 Identify Types of Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.2 Identify Number of Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.3 Identify Needed Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.4 Identify Equipment Types &amp; Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.3 Develop Financial Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.3.1 Identify Labour Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.3.2 Identify Equipment Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.3.3 Identify Miscellaneous Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.4 Develop Quality Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.1 Identify Customers Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.2 List Project Deliverables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.3 Define Quality Standards for Deliverables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.4 Customer Approval for Set Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.5 Develop Risk Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.5.1 Identify Project Risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.5.2 Categorize &amp; Prioritize Risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.6 Develop Communication Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.6.1 List Communications Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.6.2 Define Communication Needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.7 Develop Procurement Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7.1 Determine Procurement Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7.2 Identify Needed Procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7.3 Create Financial Justification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3 Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.1 Requirement Gathering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.1.1 Client Interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.1.2 Construct Use Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.1.3 Prototyping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.2 Procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.1 Compare Supplier Prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.2 Negotiate Prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.3 Obtain Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.4 Obtain Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.3 Staff Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.1 Hire Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.2 Allocate Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.3 Labour Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.4 Training Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.5 Time Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.4 Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.1 Functional Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.2 Technical Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.3 Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.5 Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.5.1 Application Development Centre Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.5.2 IT Regression Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.3 User Acceptance Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.6 System Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.6.1 Hardware Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.6.2 System Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4 Monitoring &amp; Controlling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.1 HR Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.1.1 Control Man Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.1.2 Monitor Staff Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.2 Procurement Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.2.1 Quantity Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.2.2 Quality Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.3 Quality Deliverables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.3.1 Testing Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5 Closing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.1 Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.1 Procurement Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.2 Financial Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.3 Project Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.4 Stakeholders Approval &amp; Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.2 Formal Acceptance &amp; Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.1 Inform Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.2 Stakeholders Approval &amp; Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.3 End Staff Employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.4 End Supplier Contract</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
   </si>
 </sst>
 </file>
@@ -231,7 +498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +547,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -296,12 +576,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -342,11 +622,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -373,92 +681,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -629,13 +879,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -649,6 +892,62 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,7 +966,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E39" totalsRowShown="0">
   <autoFilter ref="A1:E39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Task/Management" dataDxfId="3"/>
+    <tableColumn id="1" name="Task/Management" dataDxfId="11"/>
     <tableColumn id="2" name="Human Resources"/>
     <tableColumn id="3" name="Procurement"/>
     <tableColumn id="4" name="Communication"/>
@@ -678,25 +977,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table53" displayName="Table53" ref="A1:F9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table53" displayName="Table53" ref="A1:F9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:F9"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Resource Name" dataDxfId="11"/>
-    <tableColumn id="2" name="Amount" dataDxfId="10"/>
-    <tableColumn id="3" name="Std. Rate" dataDxfId="9"/>
-    <tableColumn id="4" name="Working Month/Week/Day/Hour" dataDxfId="8"/>
-    <tableColumn id="5" name="Calculation" dataDxfId="7"/>
-    <tableColumn id="6" name="Cost" dataDxfId="6"/>
+    <tableColumn id="1" name="Resource Name" dataDxfId="6"/>
+    <tableColumn id="2" name="Amount" dataDxfId="5"/>
+    <tableColumn id="3" name="Std. Rate" dataDxfId="4"/>
+    <tableColumn id="4" name="Working Month/Week/Day/Hour" dataDxfId="3"/>
+    <tableColumn id="5" name="Calculation" dataDxfId="2"/>
+    <tableColumn id="6" name="Cost" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B1:B40" totalsRowShown="0" headerRowDxfId="2" dataDxfId="0">
-  <autoFilter ref="B1:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B1:B93" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:B93"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Budget Cost" dataDxfId="1"/>
+    <tableColumn id="1" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1465,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,308 +1776,740 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="16">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="B2" s="15">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="15">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="15">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="16">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="15">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="16">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="16">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="16">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="16">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="16">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="16">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="16">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="16">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="16">
-        <v>109500</v>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="15">
+        <v>125400</v>
       </c>
     </row>
   </sheetData>

--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
   <si>
     <t>Task/Management</t>
   </si>
@@ -222,6 +222,279 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Integrated Supply Chain Management Project (ISCMP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1 Initiating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.1 Identify Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.2 System Proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.3 Feasibility Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.1 Technical Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.2 Schedule Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.3 Financial Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.3.4 Resource Feasibility Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.4 Develop Project Charter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.1 Determine Project Aim &amp; Objectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.2 Determine Project Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.3 Determine Project Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.4 Determine Project Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.5 Determine Project Risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.4.6 Determine Project Milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2 Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.1 Develop Project Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.1.1 Identify Phases &amp; Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.1.2 Create Project Planning Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.2 Develop Resource Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.1 Identify Types of Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.2 Identify Number of Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.3 Identify Needed Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.2.4 Identify Equipment Types &amp; Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.3 Develop Financial Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.3.1 Identify Labour Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.3.2 Identify Equipment Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.3.3 Identify Miscellaneous Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.4 Develop Quality Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.1 Identify Customers Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.2 List Project Deliverables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.3 Define Quality Standards for Deliverables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.4.4 Customer Approval for Set Targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.5 Develop Risk Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.5.1 Identify Project Risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.5.2 Categorize &amp; Prioritize Risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.6 Develop Communication Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.6.1 List Communications Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.6.2 Define Communication Needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.7 Develop Procurement Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7.1 Determine Procurement Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7.2 Identify Needed Procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         2.7.3 Create Financial Justification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3 Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.1 Requirement Gathering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.1.1 Client Interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.1.2 Construct Use Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.1.3 Prototyping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.2 Procurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.1 Compare Supplier Prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.2 Negotiate Prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.3 Obtain Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.2.4 Obtain Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.3 Staff Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.1 Hire Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.2 Allocate Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.3 Labour Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.4 Training Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.5 Time Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.4 Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.1 Functional Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.2 Technical Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.3 Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.5 Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.5.1 Application Development Centre Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.5.2 IT Regression Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.3 User Acceptance Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3.6 System Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.6.1 Hardware Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.6.2 System Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4 Monitoring &amp; Controlling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.1 HR Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.1.1 Control Man Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.1.2 Monitor Staff Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.2 Procurement Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.2.1 Quantity Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.2.2 Quality Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.3 Quality Deliverables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         4.3.1 Testing Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5 Closing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.1 Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.1 Procurement Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.2 Financial Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.3 Project Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.1.4 Stakeholders Approval &amp; Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.2 Formal Acceptance &amp; Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.1 Inform Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.2 Stakeholders Approval &amp; Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.3 End Staff Employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         5.2.4 End Supplier Contract</t>
   </si>
 </sst>
 </file>
@@ -229,9 +502,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +553,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +586,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -342,11 +640,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -364,10 +690,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,11 +717,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,9 +745,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -430,53 +762,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -629,13 +915,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -649,6 +928,62 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,7 +1002,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E39" totalsRowShown="0">
   <autoFilter ref="A1:E39"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Task/Management" dataDxfId="3"/>
+    <tableColumn id="1" name="Task/Management" dataDxfId="13"/>
     <tableColumn id="2" name="Human Resources"/>
     <tableColumn id="3" name="Procurement"/>
     <tableColumn id="4" name="Communication"/>
@@ -678,25 +1013,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table53" displayName="Table53" ref="A1:F9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table53" displayName="Table53" ref="A1:F9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:F9"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Resource Name" dataDxfId="11"/>
-    <tableColumn id="2" name="Amount" dataDxfId="10"/>
-    <tableColumn id="3" name="Std. Rate" dataDxfId="9"/>
-    <tableColumn id="4" name="Working Month/Week/Day/Hour" dataDxfId="8"/>
-    <tableColumn id="5" name="Calculation" dataDxfId="7"/>
-    <tableColumn id="6" name="Cost" dataDxfId="6"/>
+    <tableColumn id="1" name="Resource Name" dataDxfId="8"/>
+    <tableColumn id="2" name="Amount" dataDxfId="7"/>
+    <tableColumn id="3" name="Std. Rate" dataDxfId="6"/>
+    <tableColumn id="4" name="Working Month/Week/Day/Hour" dataDxfId="5"/>
+    <tableColumn id="5" name="Calculation" dataDxfId="4"/>
+    <tableColumn id="6" name="Cost" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B1:B40" totalsRowShown="0" headerRowDxfId="2" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B1:B40" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="B1:B40"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Budget Cost" dataDxfId="1"/>
+    <tableColumn id="1" name="Budget Cost" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,15 +1306,15 @@
       <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,12 +1331,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1041,12 +1376,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1062,13 +1397,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1100,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1108,15 +1443,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1148,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1173,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1181,12 +1516,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1211,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1219,12 +1554,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1248,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1273,17 +1608,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -1303,7 +1638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1323,7 +1658,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -1343,7 +1678,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1363,7 +1698,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
@@ -1383,7 +1718,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
@@ -1403,7 +1738,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -1423,7 +1758,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
@@ -1443,7 +1778,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1465,19 +1800,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1828,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +1836,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1517,7 +1852,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
@@ -1525,7 +1860,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
@@ -1533,11 +1868,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1545,7 +1880,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1888,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1561,7 +1896,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1904,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1912,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -1585,7 +1920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1593,7 +1928,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -1601,7 +1936,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
@@ -1609,11 +1944,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1956,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1629,7 +1964,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1972,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -1653,7 +1988,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -1661,7 +1996,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
@@ -1685,11 +2020,11 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +2032,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
@@ -1705,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +2048,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1721,7 +2056,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>37</v>
       </c>
@@ -1729,11 +2064,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +2076,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>23</v>
       </c>
@@ -1749,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +2092,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +2100,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
@@ -1773,13 +2108,562 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="16">
         <v>109500</v>
       </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="19"/>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="19"/>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="19"/>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="19"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="19"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="19"/>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="19"/>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="19"/>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="20"/>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="20"/>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="20"/>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="19"/>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="20"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="20"/>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="20"/>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="19"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="20"/>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="20"/>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="20"/>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="19"/>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B114" s="19"/>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="19"/>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" s="20"/>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="19"/>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="20"/>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="20"/>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="19"/>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="20"/>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123" s="19"/>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="19"/>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" s="20"/>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="20"/>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="20"/>
+    </row>
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" s="19"/>
+    </row>
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="20"/>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2EB52-F009-45C5-AED4-8D93FE71A4C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,9 +204,6 @@
     <t>Quality Control</t>
   </si>
   <si>
-    <t>$1700/day</t>
-  </si>
-  <si>
     <t>1700 x 4</t>
   </si>
   <si>
@@ -389,9 +387,6 @@
     <t xml:space="preserve">      3.3 Staff Management</t>
   </si>
   <si>
-    <t xml:space="preserve">         3.3.1 Hire Staff</t>
-  </si>
-  <si>
     <t xml:space="preserve">         3.3.2 Allocate Human Resources</t>
   </si>
   <si>
@@ -495,14 +490,20 @@
   </si>
   <si>
     <t xml:space="preserve">         5.2.4 End Supplier Contract</t>
+  </si>
+  <si>
+    <t>$1700/mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.3.1 Recruits Interview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -690,10 +691,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -762,7 +763,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -999,39 +1000,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E39" totalsRowShown="0">
-  <autoFilter ref="A1:E39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:E39" totalsRowShown="0">
+  <autoFilter ref="A1:E39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Task/Management" dataDxfId="13"/>
-    <tableColumn id="2" name="Human Resources"/>
-    <tableColumn id="3" name="Procurement"/>
-    <tableColumn id="4" name="Communication"/>
-    <tableColumn id="5" name="Risk"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task/Management" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Human Resources"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Procurement"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Communication"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Risk"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table53" displayName="Table53" ref="A1:F9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table53" displayName="Table53" ref="A1:F9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Resource Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Amount" dataDxfId="7"/>
-    <tableColumn id="3" name="Std. Rate" dataDxfId="6"/>
-    <tableColumn id="4" name="Working Month/Week/Day/Hour" dataDxfId="5"/>
-    <tableColumn id="5" name="Calculation" dataDxfId="4"/>
-    <tableColumn id="6" name="Cost" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Amount" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Std. Rate" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Working Month/Week/Day/Hour" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Calculation" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Cost" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B1:B40" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="B1:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="B1:B40" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="B1:B40" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Budget Cost" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Budget Cost" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1299,22 +1300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,12 +1332,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1376,12 +1377,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1397,13 +1398,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,15 +1444,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,12 +1517,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1554,12 +1555,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1601,24 +1602,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
@@ -1726,21 +1727,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="7">
         <v>6800</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -1758,9 +1759,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1778,13 +1779,13 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="8">
         <v>83800</v>
@@ -1799,28 +1800,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
@@ -1868,11 +1869,11 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
@@ -1944,11 +1945,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>13</v>
       </c>
@@ -2020,11 +2021,11 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>37</v>
       </c>
@@ -2064,11 +2065,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>23</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>38</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
@@ -2108,560 +2109,560 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="16">
         <v>109500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="19"/>
-    </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="19"/>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="19"/>
-    </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="20"/>
-    </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="20"/>
-    </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="20"/>
-    </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="20" t="s">
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="20"/>
-    </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="19"/>
-    </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="20" t="s">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="20"/>
-    </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="20"/>
-    </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="20" t="s">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="20"/>
-    </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="20" t="s">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="20"/>
-    </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="20"/>
-    </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="20" t="s">
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="20"/>
-    </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
+      <c r="B59" s="19"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="19"/>
-    </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="19" t="s">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="19"/>
-    </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="20" t="s">
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="20"/>
-    </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="20"/>
-    </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="19"/>
-    </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="20" t="s">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="20"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="20" t="s">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="20"/>
-    </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="20" t="s">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="20"/>
-    </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="20" t="s">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="20"/>
-    </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="19" t="s">
+      <c r="B68" s="19"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="19"/>
-    </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="20" t="s">
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="20"/>
-    </row>
-    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="20" t="s">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="20"/>
-    </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="20" t="s">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="20"/>
-    </row>
-    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="19" t="s">
+      <c r="B72" s="19"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="19"/>
-    </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="20" t="s">
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="20"/>
-    </row>
-    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="20" t="s">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="20"/>
-    </row>
-    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="20" t="s">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="20"/>
-    </row>
-    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="20" t="s">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="20"/>
-    </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="19" t="s">
+      <c r="B77" s="19"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="19"/>
-    </row>
-    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="20" t="s">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="20"/>
-    </row>
-    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="20" t="s">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="20"/>
-    </row>
-    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="19" t="s">
+      <c r="B80" s="19"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="19"/>
-    </row>
-    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="20" t="s">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="20"/>
-    </row>
-    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="20" t="s">
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="20"/>
-    </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="19" t="s">
+      <c r="B83" s="19"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="19"/>
-    </row>
-    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="20" t="s">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="20"/>
-    </row>
-    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="20" t="s">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="20"/>
-    </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="20" t="s">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="20"/>
-    </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="19" t="s">
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="19"/>
-    </row>
-    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="19" t="s">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="20" t="s">
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="20"/>
-    </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="20" t="s">
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="20"/>
-    </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="20" t="s">
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="20"/>
-    </row>
-    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="19" t="s">
+      <c r="B92" s="19"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="19"/>
-    </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="20" t="s">
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="20"/>
-    </row>
-    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="20" t="s">
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B94" s="20"/>
-    </row>
-    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="20" t="s">
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="20"/>
-    </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="20" t="s">
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="20"/>
-    </row>
-    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="19" t="s">
+      <c r="B97" s="19"/>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="20"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="19"/>
-    </row>
-    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="20" t="s">
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="20"/>
-    </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="20" t="s">
+      <c r="B100" s="20"/>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="20"/>
-    </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="20" t="s">
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="20"/>
-    </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="20" t="s">
+      <c r="B102" s="20"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="20"/>
-    </row>
-    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="20" t="s">
+      <c r="B103" s="19"/>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="20"/>
-    </row>
-    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="19" t="s">
+      <c r="B104" s="20"/>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="19"/>
-    </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="20" t="s">
+      <c r="B105" s="20"/>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="20"/>
-    </row>
-    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="20" t="s">
+      <c r="B106" s="20"/>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B105" s="20"/>
-    </row>
-    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="20" t="s">
+      <c r="B107" s="19"/>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B106" s="20"/>
-    </row>
-    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="19" t="s">
+      <c r="B108" s="20"/>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B107" s="19"/>
-    </row>
-    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="20" t="s">
+      <c r="B109" s="20"/>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B108" s="20"/>
-    </row>
-    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="20" t="s">
+      <c r="B110" s="20"/>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="20"/>
-    </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="20" t="s">
+      <c r="B111" s="19"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B110" s="20"/>
-    </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="19" t="s">
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B111" s="19"/>
-    </row>
-    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="20" t="s">
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B112" s="20"/>
-    </row>
-    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="20" t="s">
+      <c r="B114" s="19"/>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B113" s="20"/>
-    </row>
-    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="19" t="s">
+      <c r="B115" s="19"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B114" s="19"/>
-    </row>
-    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="19" t="s">
+      <c r="B116" s="20"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="19"/>
-    </row>
-    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="20" t="s">
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B116" s="20"/>
-    </row>
-    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="20" t="s">
+      <c r="B118" s="19"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="20"/>
-    </row>
-    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="19" t="s">
+      <c r="B119" s="20"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="19"/>
-    </row>
-    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="20" t="s">
+      <c r="B120" s="20"/>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="20"/>
-    </row>
-    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="20" t="s">
+      <c r="B121" s="19"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="20"/>
-    </row>
-    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="19" t="s">
+      <c r="B122" s="20"/>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="19"/>
-    </row>
-    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="20" t="s">
+      <c r="B123" s="19"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="20"/>
-    </row>
-    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="19" t="s">
+      <c r="B124" s="19"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="19"/>
-    </row>
-    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="19" t="s">
+      <c r="B125" s="20"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="19"/>
-    </row>
-    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="20" t="s">
+      <c r="B126" s="20"/>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="20"/>
-    </row>
-    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="20" t="s">
+      <c r="B127" s="20"/>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="20"/>
-    </row>
-    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="20" t="s">
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="20"/>
-    </row>
-    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="20" t="s">
+      <c r="B129" s="19"/>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="20"/>
-    </row>
-    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="19" t="s">
+      <c r="B130" s="20"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B129" s="19"/>
-    </row>
-    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="20" t="s">
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="20"/>
-    </row>
-    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="20" t="s">
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="B131" s="20"/>
-    </row>
-    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B132" s="20"/>
-    </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="20" t="s">
-        <v>157</v>
       </c>
       <c r="B133" s="20"/>
     </row>
